--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Plat-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Plat-Lrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.846663</v>
+        <v>8.872289666666667</v>
       </c>
       <c r="H2">
-        <v>20.539989</v>
+        <v>26.616869</v>
       </c>
       <c r="I2">
-        <v>0.0915999962307518</v>
+        <v>0.1344073019604298</v>
       </c>
       <c r="J2">
-        <v>0.09952666951304696</v>
+        <v>0.1393180933827548</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N2">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O2">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P2">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q2">
-        <v>27.021551413304</v>
+        <v>25.79038268582122</v>
       </c>
       <c r="R2">
-        <v>243.193962719736</v>
+        <v>232.113444172391</v>
       </c>
       <c r="S2">
-        <v>0.0007403375366212385</v>
+        <v>0.0007419989698536164</v>
       </c>
       <c r="T2">
-        <v>0.0008278313395640767</v>
+        <v>0.0007836003069049704</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.846663</v>
+        <v>8.872289666666667</v>
       </c>
       <c r="H3">
-        <v>20.539989</v>
+        <v>26.616869</v>
       </c>
       <c r="I3">
-        <v>0.0915999962307518</v>
+        <v>0.1344073019604298</v>
       </c>
       <c r="J3">
-        <v>0.09952666951304696</v>
+        <v>0.1393180933827548</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P3">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q3">
-        <v>1272.128774925493</v>
+        <v>1648.495768586942</v>
       </c>
       <c r="R3">
-        <v>11449.15897432944</v>
+        <v>14836.46191728248</v>
       </c>
       <c r="S3">
-        <v>0.0348538345962489</v>
+        <v>0.04742784071878179</v>
       </c>
       <c r="T3">
-        <v>0.03897289432930499</v>
+        <v>0.0500869570619611</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.846663</v>
+        <v>8.872289666666667</v>
       </c>
       <c r="H4">
-        <v>20.539989</v>
+        <v>26.616869</v>
       </c>
       <c r="I4">
-        <v>0.0915999962307518</v>
+        <v>0.1344073019604298</v>
       </c>
       <c r="J4">
-        <v>0.09952666951304696</v>
+        <v>0.1393180933827548</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N4">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O4">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P4">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q4">
-        <v>803.3834950243331</v>
+        <v>1216.13990439561</v>
       </c>
       <c r="R4">
-        <v>7230.451455218998</v>
+        <v>10945.25913956049</v>
       </c>
       <c r="S4">
-        <v>0.02201113283879177</v>
+        <v>0.03498880056384417</v>
       </c>
       <c r="T4">
-        <v>0.02461242971201941</v>
+        <v>0.03695050259365459</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.846663</v>
+        <v>8.872289666666667</v>
       </c>
       <c r="H5">
-        <v>20.539989</v>
+        <v>26.616869</v>
       </c>
       <c r="I5">
-        <v>0.0915999962307518</v>
+        <v>0.1344073019604298</v>
       </c>
       <c r="J5">
-        <v>0.09952666951304696</v>
+        <v>0.1393180933827548</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N5">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O5">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P5">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q5">
-        <v>283.852884638562</v>
+        <v>259.1838601840062</v>
       </c>
       <c r="R5">
-        <v>1703.117307831372</v>
+        <v>1555.103161104037</v>
       </c>
       <c r="S5">
-        <v>0.007777012583840031</v>
+        <v>0.007456816736765403</v>
       </c>
       <c r="T5">
-        <v>0.005797404946279906</v>
+        <v>0.005249929915326112</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.846663</v>
+        <v>8.872289666666667</v>
       </c>
       <c r="H6">
-        <v>20.539989</v>
+        <v>26.616869</v>
       </c>
       <c r="I6">
-        <v>0.0915999962307518</v>
+        <v>0.1344073019604298</v>
       </c>
       <c r="J6">
-        <v>0.09952666951304696</v>
+        <v>0.1393180933827548</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N6">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O6">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P6">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q6">
-        <v>956.918050506997</v>
+        <v>1522.115914187623</v>
       </c>
       <c r="R6">
-        <v>8612.262454562973</v>
+        <v>13699.04322768861</v>
       </c>
       <c r="S6">
-        <v>0.02621767867524986</v>
+        <v>0.04379184497118482</v>
       </c>
       <c r="T6">
-        <v>0.02931610918587859</v>
+        <v>0.04624710350490799</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>149.802053</v>
       </c>
       <c r="I7">
-        <v>0.6680562238937363</v>
+        <v>0.7564559818009891</v>
       </c>
       <c r="J7">
-        <v>0.7258669623098115</v>
+        <v>0.784094342906462</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N7">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O7">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P7">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q7">
-        <v>197.0733225299191</v>
+        <v>145.1505161629519</v>
       </c>
       <c r="R7">
-        <v>1773.659902769272</v>
+        <v>1306.354645466567</v>
       </c>
       <c r="S7">
-        <v>0.00539942270167838</v>
+        <v>0.004176034717229771</v>
       </c>
       <c r="T7">
-        <v>0.006037531675622552</v>
+        <v>0.004410170659283578</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>149.802053</v>
       </c>
       <c r="I8">
-        <v>0.6680562238937363</v>
+        <v>0.7564559818009891</v>
       </c>
       <c r="J8">
-        <v>0.7258669623098115</v>
+        <v>0.784094342906462</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P8">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q8">
         <v>9277.877518055817</v>
@@ -948,10 +948,10 @@
         <v>83500.89766250235</v>
       </c>
       <c r="S8">
-        <v>0.2541956559684872</v>
+        <v>0.2669280112935338</v>
       </c>
       <c r="T8">
-        <v>0.2842367433537547</v>
+        <v>0.2818937492762436</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>149.802053</v>
       </c>
       <c r="I9">
-        <v>0.6680562238937363</v>
+        <v>0.7564559818009891</v>
       </c>
       <c r="J9">
-        <v>0.7258669623098115</v>
+        <v>0.784094342906462</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N9">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O9">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P9">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q9">
-        <v>5859.228887657164</v>
+        <v>6844.541122161519</v>
       </c>
       <c r="R9">
-        <v>52733.05998891447</v>
+        <v>61600.87009945367</v>
       </c>
       <c r="S9">
-        <v>0.1605313852946428</v>
+        <v>0.1969200117591372</v>
       </c>
       <c r="T9">
-        <v>0.1795031389831175</v>
+        <v>0.2079606413478341</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>149.802053</v>
       </c>
       <c r="I10">
-        <v>0.6680562238937363</v>
+        <v>0.7564559818009891</v>
       </c>
       <c r="J10">
-        <v>0.7258669623098115</v>
+        <v>0.784094342906462</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N10">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O10">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P10">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q10">
-        <v>2070.193166550807</v>
+        <v>1458.709300482678</v>
       </c>
       <c r="R10">
-        <v>12421.15899930484</v>
+        <v>8752.255802896068</v>
       </c>
       <c r="S10">
-        <v>0.05671923442929162</v>
+        <v>0.04196761294546771</v>
       </c>
       <c r="T10">
-        <v>0.0422815787790872</v>
+        <v>0.02954706203129931</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>149.802053</v>
       </c>
       <c r="I11">
-        <v>0.6680562238937363</v>
+        <v>0.7564559818009891</v>
       </c>
       <c r="J11">
-        <v>0.7258669623098115</v>
+        <v>0.784094342906462</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N11">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O11">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P11">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q11">
-        <v>6978.985651779358</v>
+        <v>8566.600709094588</v>
       </c>
       <c r="R11">
-        <v>62810.87086601422</v>
+        <v>77099.40638185128</v>
       </c>
       <c r="S11">
-        <v>0.1912105254996363</v>
+        <v>0.2464643110856206</v>
       </c>
       <c r="T11">
-        <v>0.2138079695182296</v>
+        <v>0.2602827195918014</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1055886666666667</v>
+        <v>0.2238023333333334</v>
       </c>
       <c r="H12">
-        <v>0.316766</v>
+        <v>0.6714070000000001</v>
       </c>
       <c r="I12">
-        <v>0.001412647514369668</v>
+        <v>0.003390406414343712</v>
       </c>
       <c r="J12">
-        <v>0.001534892009677796</v>
+        <v>0.003514280478437762</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N12">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O12">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P12">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q12">
-        <v>0.4167241158204444</v>
+        <v>0.6505589920414444</v>
       </c>
       <c r="R12">
-        <v>3.750517042384</v>
+        <v>5.855030928373</v>
       </c>
       <c r="S12">
-        <v>1.141742384211419E-05</v>
+        <v>1.871682587281423E-05</v>
       </c>
       <c r="T12">
-        <v>1.276674598551899E-05</v>
+        <v>1.976621409746373E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1055886666666667</v>
+        <v>0.2238023333333334</v>
       </c>
       <c r="H13">
-        <v>0.316766</v>
+        <v>0.6714070000000001</v>
       </c>
       <c r="I13">
-        <v>0.001412647514369668</v>
+        <v>0.003390406414343712</v>
       </c>
       <c r="J13">
-        <v>0.001534892009677796</v>
+        <v>0.003514280478437762</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P13">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q13">
-        <v>19.61866403716422</v>
+        <v>41.58308772153678</v>
       </c>
       <c r="R13">
-        <v>176.567976334478</v>
+        <v>374.247789493831</v>
       </c>
       <c r="S13">
-        <v>0.000537512934876225</v>
+        <v>0.001196361009008052</v>
       </c>
       <c r="T13">
-        <v>0.0006010367310866925</v>
+        <v>0.001263436867052249</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1055886666666667</v>
+        <v>0.2238023333333334</v>
       </c>
       <c r="H14">
-        <v>0.316766</v>
+        <v>0.6714070000000001</v>
       </c>
       <c r="I14">
-        <v>0.001412647514369668</v>
+        <v>0.003390406414343712</v>
       </c>
       <c r="J14">
-        <v>0.001534892009677796</v>
+        <v>0.003514280478437762</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N14">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O14">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P14">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q14">
-        <v>12.38971336279089</v>
+        <v>30.67696823358688</v>
       </c>
       <c r="R14">
-        <v>111.507420265118</v>
+        <v>276.092714102282</v>
       </c>
       <c r="S14">
-        <v>0.0003394538577801922</v>
+        <v>0.0008825878663703431</v>
       </c>
       <c r="T14">
-        <v>0.00037957084154999</v>
+        <v>0.0009320715406044885</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1055886666666667</v>
+        <v>0.2238023333333334</v>
       </c>
       <c r="H15">
-        <v>0.316766</v>
+        <v>0.6714070000000001</v>
       </c>
       <c r="I15">
-        <v>0.001412647514369668</v>
+        <v>0.003390406414343712</v>
       </c>
       <c r="J15">
-        <v>0.001534892009677796</v>
+        <v>0.003514280478437762</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N15">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O15">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P15">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q15">
-        <v>4.377555550561333</v>
+        <v>6.537878591751833</v>
       </c>
       <c r="R15">
-        <v>26.265333303368</v>
+        <v>39.22727155051101</v>
       </c>
       <c r="S15">
-        <v>0.0001199364404787496</v>
+        <v>0.0001880972158964847</v>
       </c>
       <c r="T15">
-        <v>8.940709633356183E-05</v>
+        <v>0.0001324287877232803</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1055886666666667</v>
+        <v>0.2238023333333334</v>
       </c>
       <c r="H16">
-        <v>0.316766</v>
+        <v>0.6714070000000001</v>
       </c>
       <c r="I16">
-        <v>0.001412647514369668</v>
+        <v>0.003390406414343712</v>
       </c>
       <c r="J16">
-        <v>0.001534892009677796</v>
+        <v>0.003514280478437762</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N16">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O16">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P16">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q16">
-        <v>14.75751049267356</v>
+        <v>38.39517261015822</v>
       </c>
       <c r="R16">
-        <v>132.817594434062</v>
+        <v>345.556553491424</v>
       </c>
       <c r="S16">
-        <v>0.0004043268573923869</v>
+        <v>0.001104643497196018</v>
       </c>
       <c r="T16">
-        <v>0.0004521105947220331</v>
+        <v>0.001166577068960281</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.858963</v>
+        <v>6.980364</v>
       </c>
       <c r="H17">
-        <v>35.717926</v>
+        <v>13.960728</v>
       </c>
       <c r="I17">
-        <v>0.2389311323611423</v>
+        <v>0.1057463098242374</v>
       </c>
       <c r="J17">
-        <v>0.1730714761674637</v>
+        <v>0.07307328323234559</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N17">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O17">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P17">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q17">
-        <v>70.48351684503733</v>
+        <v>20.290845498732</v>
       </c>
       <c r="R17">
-        <v>422.9011010702239</v>
+        <v>121.745072992392</v>
       </c>
       <c r="S17">
-        <v>0.001931110188135423</v>
+        <v>0.0005837752250878872</v>
       </c>
       <c r="T17">
-        <v>0.00143955376641295</v>
+        <v>0.0004110036663371944</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.858963</v>
+        <v>6.980364</v>
       </c>
       <c r="H18">
-        <v>35.717926</v>
+        <v>13.960728</v>
       </c>
       <c r="I18">
-        <v>0.2389311323611423</v>
+        <v>0.1057463098242374</v>
       </c>
       <c r="J18">
-        <v>0.1730714761674637</v>
+        <v>0.07307328323234559</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P18">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q18">
-        <v>3318.244336347459</v>
+        <v>1296.970787645604</v>
       </c>
       <c r="R18">
-        <v>19909.46601808476</v>
+        <v>7781.824725873624</v>
       </c>
       <c r="S18">
-        <v>0.09091338984590436</v>
+        <v>0.03731433535076404</v>
       </c>
       <c r="T18">
-        <v>0.06777174786510036</v>
+        <v>0.02627094809271962</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.858963</v>
+        <v>6.980364</v>
       </c>
       <c r="H19">
-        <v>35.717926</v>
+        <v>13.960728</v>
       </c>
       <c r="I19">
-        <v>0.2389311323611423</v>
+        <v>0.1057463098242374</v>
       </c>
       <c r="J19">
-        <v>0.1730714761674637</v>
+        <v>0.07307328323234559</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N19">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O19">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P19">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q19">
-        <v>2095.5604376103</v>
+        <v>956.8104205952877</v>
       </c>
       <c r="R19">
-        <v>12573.3626256618</v>
+        <v>5740.862523571727</v>
       </c>
       <c r="S19">
-        <v>0.05741424792721171</v>
+        <v>0.02752779418109292</v>
       </c>
       <c r="T19">
-        <v>0.04279967935397192</v>
+        <v>0.01938078878373359</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.858963</v>
+        <v>6.980364</v>
       </c>
       <c r="H20">
-        <v>35.717926</v>
+        <v>13.960728</v>
       </c>
       <c r="I20">
-        <v>0.2389311323611423</v>
+        <v>0.1057463098242374</v>
       </c>
       <c r="J20">
-        <v>0.1730714761674637</v>
+        <v>0.07307328323234559</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N20">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O20">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P20">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q20">
-        <v>740.4071390987619</v>
+        <v>203.915534206086</v>
       </c>
       <c r="R20">
-        <v>2961.628556395048</v>
+        <v>815.662136824344</v>
       </c>
       <c r="S20">
-        <v>0.0202857041430743</v>
+        <v>0.005866726297211895</v>
       </c>
       <c r="T20">
-        <v>0.01008137252961818</v>
+        <v>0.002753623785236756</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.858963</v>
+        <v>6.980364</v>
       </c>
       <c r="H21">
-        <v>35.717926</v>
+        <v>13.960728</v>
       </c>
       <c r="I21">
-        <v>0.2389311323611423</v>
+        <v>0.1057463098242374</v>
       </c>
       <c r="J21">
-        <v>0.1730714761674637</v>
+        <v>0.07307328323234559</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N21">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O21">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P21">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q21">
-        <v>2496.042825247363</v>
+        <v>1197.540153714816</v>
       </c>
       <c r="R21">
-        <v>14976.25695148418</v>
+        <v>7185.240922288895</v>
       </c>
       <c r="S21">
-        <v>0.06838668025681653</v>
+        <v>0.03445367877008067</v>
       </c>
       <c r="T21">
-        <v>0.05097912265236031</v>
+        <v>0.02425691890431842</v>
       </c>
     </row>
   </sheetData>
